--- a/aichan/549494791554149001_2021-07-20_18-40-26.xlsx
+++ b/aichan/549494791554149001_2021-07-20_18-40-26.xlsx
@@ -2072,7 +2072,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2139,11 +2139,11 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9980,7 +9980,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17724,7 +17724,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18454,7 +18454,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19054,7 +19054,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19117,7 +19117,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19263,7 +19263,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19693,7 +19693,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21696,7 +21696,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -21846,7 +21846,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22442,7 +22442,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22577,7 +22577,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23297,7 +23297,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23514,7 +23514,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23722,7 +23722,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24010,7 +24010,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -25122,7 +25122,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25197,7 +25197,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27288,7 +27288,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27709,7 +27709,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G379" t="inlineStr">
         <is>
@@ -27722,7 +27722,7 @@
         </is>
       </c>
       <c r="I379" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28315,7 +28315,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28516,7 +28516,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28737,7 +28737,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28875,7 +28875,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29305,7 +29305,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29447,7 +29447,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29518,7 +29518,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29597,7 +29597,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30107,7 +30107,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30466,7 +30466,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30754,7 +30754,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -30892,7 +30892,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -30973,7 +30973,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31040,7 +31040,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31187,7 +31187,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31562,7 +31562,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31704,7 +31704,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32009,7 +32009,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32727,7 +32727,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -33552,7 +33552,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33932,7 +33932,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -33999,7 +33999,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34518,7 +34518,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34585,7 +34585,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -34969,7 +34969,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35336,7 +35336,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35566,7 +35566,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35937,7 +35937,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36012,7 +36012,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -36159,7 +36159,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36234,7 +36234,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -36301,7 +36301,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36514,7 +36514,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -36593,7 +36593,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -36660,7 +36660,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -36945,7 +36945,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37099,7 +37099,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37178,7 +37178,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -38331,7 +38331,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -38473,7 +38473,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -38544,7 +38544,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -38912,7 +38912,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -38987,7 +38987,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -39145,7 +39145,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -39496,7 +39496,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -39764,7 +39764,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -39922,7 +39922,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -40222,7 +40222,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -40293,7 +40293,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -40589,7 +40589,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -40866,7 +40866,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41087,7 +41087,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -41244,7 +41244,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41315,7 +41315,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -41382,7 +41382,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41449,7 +41449,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -42528,7 +42528,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -42675,7 +42675,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -42746,7 +42746,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -45090,7 +45090,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">

--- a/aichan/549494791554149001_2021-07-20_18-40-26.xlsx
+++ b/aichan/549494791554149001_2021-07-20_18-40-26.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-02 04:06:23</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44410.17109953704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -625,10 +639,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-29 06:33:22</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44406.2731712963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -696,10 +708,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:38:47</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44401.44359953704</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -775,10 +785,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-24 10:07:12</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44401.42166666667</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -846,10 +854,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-24 09:04:56</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44401.37842592593</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -925,10 +931,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:41:10</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44401.36192129629</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -996,10 +1000,8 @@
           <t>4956434619</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-23 00:12:11</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44400.00846064815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:22:22</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44399.01553240741</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1129,10 +1129,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-22 00:16:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44399.0112037037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1198,10 +1196,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:42:10</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44398.98761574074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1261,10 +1257,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:28:44</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44398.97828703704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1324,10 +1318,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:25:23</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44398.97596064815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1391,10 +1383,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:24:25</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44398.97528935185</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1458,10 +1448,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:20:14</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44398.97238425926</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1521,10 +1509,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:13:16</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44398.9675462963</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1588,10 +1574,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:09:11</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44398.96471064815</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1655,10 +1639,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:06:29</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44398.96283564815</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1722,10 +1704,8 @@
           <t>4953747047</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:48:27</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44398.9503125</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1797,10 +1777,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:48:06</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44398.95006944444</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1860,10 +1838,8 @@
           <t>4957905351</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:43:57</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44398.9471875</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1927,10 +1903,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:43:16</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44398.94671296296</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -1994,10 +1968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:40:34</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44398.94483796296</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2069,10 +2041,8 @@
           <t>4961465711</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-21 22:19:46</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44398.93039351852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2148,10 +2118,8 @@
           <t>4957597610</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:18:26</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44398.88780092593</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2219,10 +2187,8 @@
           <t>4957597610</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-21 21:08:37</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44398.8809837963</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2298,10 +2264,8 @@
           <t>4957597610</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-21 20:49:24</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44398.86763888889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2369,10 +2333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-21 19:57:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44398.8315625</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2436,10 +2398,8 @@
           <t>4959281096</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-21 17:21:17</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44398.72311342593</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2507,10 +2467,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:31:27</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44398.68850694445</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2575,10 +2533,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:28:02</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44398.68613425926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2638,10 +2594,8 @@
           <t>4953815379</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:27:51</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44398.68600694444</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2713,10 +2667,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:23:35</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44398.68304398148</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2782,10 +2734,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:17:35</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44398.67887731481</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2845,10 +2795,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:13:25</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44398.6759837963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2912,10 +2860,8 @@
           <t>4958732978</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:49:25</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44398.65931712963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2987,10 +2933,8 @@
           <t>4958661033</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:35:45</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44398.64982638889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3051,10 +2995,8 @@
           <t>4958657347</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:34:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44398.64900462963</v>
       </c>
       <c r="I38" t="n">
         <v>8</v>
@@ -3114,10 +3056,8 @@
           <t>4952789075</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:29:49</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44398.64570601852</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3181,10 +3121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:27:32</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44398.64412037037</v>
       </c>
       <c r="I40" t="n">
         <v>13</v>
@@ -3252,10 +3190,8 @@
           <t>4958575115</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-21 15:18:30</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44398.63784722222</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3323,10 +3259,8 @@
           <t>4958427492</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:51:40</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44398.61921296296</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3394,10 +3328,8 @@
           <t>4958412089</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:48:38</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44398.61710648148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3488,10 +3420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:05:07</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44398.58688657408</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3551,10 +3481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:03:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44398.58605324074</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3619,10 +3547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:43:38</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44398.57196759259</v>
       </c>
       <c r="I46" t="n">
         <v>20</v>
@@ -3682,10 +3608,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:39:55</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44398.56938657408</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3757,10 +3681,8 @@
           <t>4957351954</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:37:41</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44398.56783564815</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3832,10 +3754,8 @@
           <t>4957905351</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:37:23</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44398.56762731481</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -3899,10 +3819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:37:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44398.56748842593</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -3962,10 +3880,8 @@
           <t>4957905351</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:36:08</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44398.56675925926</v>
       </c>
       <c r="I51" t="n">
         <v>7</v>
@@ -4037,10 +3953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:35:57</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44398.56663194444</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4104,10 +4018,8 @@
           <t>4957906144</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44398.55331018518</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4171,10 +4083,8 @@
           <t>4957905351</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:16:23</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44398.55304398148</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4238,10 +4148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:12:35</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44398.5504050926</v>
       </c>
       <c r="I55" t="n">
         <v>15</v>
@@ -4309,10 +4217,8 @@
           <t>4957656331</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:08:16</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44398.54740740741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4381,10 +4287,8 @@
           <t>4957813781</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:03:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44398.54380787037</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4444,10 +4348,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:58:27</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44398.54059027778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4523,10 +4425,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:57:45</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44398.54010416667</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4603,10 +4503,8 @@
           <t>4957351954</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:55:11</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44398.53832175926</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4683,10 +4581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:54:17</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44398.53769675926</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4754,10 +4650,8 @@
           <t>4957597610</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:42:49</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44398.5297337963</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4833,10 +4727,8 @@
           <t>4957656331</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:39:04</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44398.52712962963</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4900,10 +4792,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:34:20</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44398.52384259259</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -4979,10 +4869,8 @@
           <t>4957597610</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:30:52</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44398.52143518518</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5050,10 +4938,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:25:30</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44398.51770833333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5125,10 +5011,8 @@
           <t>4957471753</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:12:00</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44398.50833333333</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5196,10 +5080,8 @@
           <t>4956863347</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:08:28</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44398.50587962963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5263,10 +5145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:07:34</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44398.50525462963</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5326,10 +5206,8 @@
           <t>4953747047</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:03:41</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44398.50255787037</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5393,10 +5271,8 @@
           <t>4953747047</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:00:53</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44398.50061342592</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5467,10 +5343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:59:45</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44398.49982638889</v>
       </c>
       <c r="I72" t="n">
         <v>12</v>
@@ -5534,10 +5408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:59:10</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44398.4994212963</v>
       </c>
       <c r="I73" t="n">
         <v>13</v>
@@ -5609,10 +5481,8 @@
           <t>4957351954</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:54:09</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44398.4959375</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5681,10 +5551,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:53:49</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44398.49570601852</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5756,10 +5624,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:47:13</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44398.49112268518</v>
       </c>
       <c r="I76" t="n">
         <v>5</v>
@@ -5835,10 +5701,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:44:38</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44398.4893287037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5902,10 +5766,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:41:53</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44398.48741898148</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
@@ -5981,10 +5843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:34:45</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44398.48246527778</v>
       </c>
       <c r="I79" t="n">
         <v>9</v>
@@ -6060,10 +5920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:32:57</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44398.48121527778</v>
       </c>
       <c r="I80" t="n">
         <v>13</v>
@@ -6135,10 +5993,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:30:57</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44398.47982638889</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6210,10 +6066,8 @@
           <t>4957142455</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:18:51</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44398.47142361111</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6281,10 +6135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:18:34</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44398.47122685185</v>
       </c>
       <c r="I83" t="n">
         <v>19</v>
@@ -6352,10 +6204,8 @@
           <t>4956880205</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:18:33</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44398.47121527778</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6419,10 +6269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:12:09</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44398.46677083334</v>
       </c>
       <c r="I85" t="n">
         <v>8</v>
@@ -6486,10 +6334,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-21 11:07:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44398.46350694444</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6553,10 +6399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:57:47</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44398.45679398148</v>
       </c>
       <c r="I87" t="n">
         <v>38</v>
@@ -6620,10 +6464,8 @@
           <t>4956991334</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:51:32</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44398.45245370371</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6687,10 +6529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:45:52</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44398.44851851852</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -6758,10 +6598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:37:08</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44398.4424537037</v>
       </c>
       <c r="I90" t="n">
         <v>14</v>
@@ -6825,10 +6663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:35:00</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44398.44097222222</v>
       </c>
       <c r="I91" t="n">
         <v>16</v>
@@ -6892,10 +6728,8 @@
           <t>4956901378</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:34:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44398.44059027778</v>
       </c>
       <c r="I92" t="n">
         <v>6</v>
@@ -6963,10 +6797,8 @@
           <t>4956880205</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:29:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44398.43709490741</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7030,10 +6862,8 @@
           <t>4956863347</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:28:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44398.43623842593</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7097,10 +6927,8 @@
           <t>4956862391</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:27:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44398.43587962963</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7164,10 +6992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:25:11</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44398.43415509259</v>
       </c>
       <c r="I96" t="n">
         <v>28</v>
@@ -7235,10 +7061,8 @@
           <t>4956844031</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:24:44</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44398.4338425926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7310,10 +7134,8 @@
           <t>4956837543</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:22:40</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44398.43240740741</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7385,10 +7207,8 @@
           <t>4956333767</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:18:14</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44398.42932870371</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7456,10 +7276,8 @@
           <t>4956771904</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:11:00</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44398.42430555556</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7527,10 +7345,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-21 10:08:32</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44398.42259259259</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7590,10 +7406,8 @@
           <t>4956333767</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:58:54</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44398.41590277778</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7657,10 +7471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:57:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44398.41521990741</v>
       </c>
       <c r="I103" t="n">
         <v>29</v>
@@ -7733,10 +7545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:54:49</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44398.41306712963</v>
       </c>
       <c r="I104" t="n">
         <v>12</v>
@@ -7808,10 +7618,8 @@
           <t>4956642885</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:46:39</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44398.40739583333</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7887,10 +7695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:39:09</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44398.4021875</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -7954,10 +7760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:36:51</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44398.40059027778</v>
       </c>
       <c r="I107" t="n">
         <v>35</v>
@@ -8029,10 +7833,8 @@
           <t>4956542762</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:26:19</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44398.39327546296</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8096,10 +7898,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:22:44</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44398.39078703704</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8175,10 +7975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:22:33</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44398.39065972222</v>
       </c>
       <c r="I110" t="n">
         <v>16</v>
@@ -8256,10 +8054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:16:59</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44398.38679398148</v>
       </c>
       <c r="I111" t="n">
         <v>13</v>
@@ -8329,10 +8125,8 @@
           <t>4954935249</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:13:59</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44398.38471064815</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8408,10 +8202,8 @@
           <t>4956333767</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:06:07</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44398.37924768519</v>
       </c>
       <c r="I113" t="n">
         <v>6</v>
@@ -8479,10 +8271,8 @@
           <t>4956434619</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:03:26</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44398.37738425926</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8558,10 +8348,8 @@
           <t>4956432638</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:02:04</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44398.37643518519</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8637,10 +8425,8 @@
           <t>4956431170</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:01:06</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44398.37576388889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8716,10 +8502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-21 09:00:07</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44398.37508101852</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8783,10 +8567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-21 08:58:15</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44398.37378472222</v>
       </c>
       <c r="I118" t="n">
         <v>12</v>
@@ -8846,10 +8628,8 @@
           <t>4956333767</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-21 08:40:49</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44398.36167824074</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -8925,10 +8705,8 @@
           <t>4956282821</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-21 08:26:49</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44398.35195601852</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9004,10 +8782,8 @@
           <t>4956202217</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-21 08:04:50</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44398.33668981482</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9071,10 +8847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-21 08:01:48</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44398.33458333334</v>
       </c>
       <c r="I122" t="n">
         <v>4</v>
@@ -9138,10 +8912,8 @@
           <t>4956084952</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:28:31</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44398.31146990741</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9205,10 +8977,8 @@
           <t>4955215548</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:02:50</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44398.29363425926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9280,10 +9050,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-21 07:00:31</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44398.29202546296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9347,10 +9115,8 @@
           <t>4956004909</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-21 06:51:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44398.28549768519</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9418,10 +9184,8 @@
           <t>4953815379</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-21 06:05:00</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44398.25347222222</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9481,10 +9245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-21 05:39:15</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44398.23559027778</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9548,10 +9310,8 @@
           <t>4955910640</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-21 05:17:11</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44398.2202662037</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9627,10 +9387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-21 05:15:12</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44398.21888888889</v>
       </c>
       <c r="I130" t="n">
         <v>35</v>
@@ -9706,10 +9464,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-21 05:03:35</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44398.21082175926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9773,10 +9529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-21 04:40:53</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44398.19505787037</v>
       </c>
       <c r="I132" t="n">
         <v>13</v>
@@ -9840,10 +9594,8 @@
           <t>4955842642</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-21 04:08:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44398.17268518519</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -9911,10 +9663,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:58:02</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44398.16530092592</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -9986,10 +9736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:40:04</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44398.15282407407</v>
       </c>
       <c r="I135" t="n">
         <v>10</v>
@@ -10056,10 +9804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:40:00</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44398.15277777778</v>
       </c>
       <c r="I136" t="n">
         <v>9</v>
@@ -10132,10 +9878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:39:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44398.15274305556</v>
       </c>
       <c r="I137" t="n">
         <v>10</v>
@@ -10195,10 +9939,8 @@
           <t>4955810686</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:38:04</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44398.15143518519</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10274,10 +10016,8 @@
           <t>4955798023</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:32:24</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44398.1475</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10337,10 +10077,8 @@
           <t>4955199861</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-21 03:13:44</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44398.13453703704</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10404,10 +10142,8 @@
           <t>4955733885</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:53:00</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44398.12013888889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10483,10 +10219,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:43:15</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44398.11336805556</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10562,10 +10296,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:42:11</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44398.11262731482</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10629,10 +10361,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:35:00</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44398.10763888889</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10696,10 +10426,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:34:33</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44398.10732638889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10763,10 +10491,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:33:16</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44398.10643518518</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10842,10 +10568,8 @@
           <t>4955674330</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:33:11</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44398.10637731481</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -10909,10 +10633,8 @@
           <t>4955674330</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:31:19</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44398.10508101852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -10988,10 +10710,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:30:17</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44398.10436342593</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11055,10 +10775,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:29:43</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44398.10396990741</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11122,10 +10840,8 @@
           <t>4955674330</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:28:58</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44398.10344907407</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11189,10 +10905,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:28:36</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44398.10319444445</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11256,10 +10970,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:28:27</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44398.10309027778</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11335,10 +11047,8 @@
           <t>4955674330</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:28:01</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44398.10278935185</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11402,10 +11112,8 @@
           <t>4955674330</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:27:14</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44398.10224537037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11481,10 +11189,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:26:37</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44398.10181712963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11548,10 +11254,8 @@
           <t>4955674330</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:25:56</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44398.10134259259</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11615,10 +11319,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:25:41</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44398.10116898148</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11694,10 +11396,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:24:09</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44398.10010416667</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11773,10 +11473,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:24:04</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44398.1000462963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11840,10 +11538,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:23:31</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44398.09966435185</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -11907,10 +11603,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:22:22</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44398.09886574074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -11986,10 +11680,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:22:20</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44398.09884259259</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12053,10 +11745,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:21:39</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44398.09836805556</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12120,10 +11810,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:19:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44398.09670138889</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12187,10 +11875,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:15:18</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44398.09395833333</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12266,10 +11952,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:13:28</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44398.09268518518</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12333,10 +12017,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:10:06</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44398.09034722222</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12412,10 +12094,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:08:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44398.08921296296</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12479,10 +12159,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:05:15</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44398.08697916667</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12558,10 +12236,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:03:17</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44398.08561342592</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12625,10 +12301,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:02:56</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44398.08537037037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12692,10 +12366,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:01:19</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44398.08424768518</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12771,10 +12443,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-21 02:00:09</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44398.0834375</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12838,10 +12508,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:59:25</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44398.08292824074</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -12905,10 +12573,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:58:03</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44398.08197916667</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -12984,10 +12650,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:57:13</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44398.08140046296</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13063,10 +12727,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:56:29</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44398.0808912037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13130,10 +12792,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:55:37</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44398.08028935185</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13197,10 +12857,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:54:35</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44398.07957175926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13276,10 +12934,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:49:45</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44398.07621527778</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13343,10 +12999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:46:02</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44398.07363425926</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13414,10 +13068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:42:30</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44398.07118055555</v>
       </c>
       <c r="I183" t="n">
         <v>15</v>
@@ -13481,10 +13133,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:37:22</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44398.06761574074</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13560,10 +13210,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:35:52</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44398.06657407407</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13627,10 +13275,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:33:19</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44398.06480324074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13706,10 +13352,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:32:32</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44398.06425925926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13773,10 +13417,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:29:55</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44398.06244212963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13852,10 +13494,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:29:49</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44398.06237268518</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -13927,10 +13567,8 @@
           <t>4955501365</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:28:59</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44398.06179398148</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -13998,10 +13636,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:28:44</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44398.06162037037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14077,10 +13713,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:27:49</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44398.0609837963</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14144,10 +13778,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:27:04</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44398.06046296296</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14223,10 +13855,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:26:50</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44398.06030092593</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14290,10 +13920,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:26:32</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44398.06009259259</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14357,10 +13985,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:26:07</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44398.05980324074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14436,10 +14062,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:24:39</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44398.05878472222</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14503,10 +14127,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:24:18</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44398.05854166667</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14570,10 +14192,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:24:03</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44398.05836805556</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14637,10 +14257,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:23:30</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44398.05798611111</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14716,10 +14334,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:22:36</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44398.05736111111</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14783,10 +14399,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:22:27</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44398.05725694444</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -14862,10 +14476,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:22:10</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44398.05706018519</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -14929,10 +14541,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:21:59</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44398.05693287037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -14996,10 +14606,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:21:17</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44398.05644675926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15063,10 +14671,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:21:06</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44398.05631944445</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15135,10 +14741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:20:30</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44398.05590277778</v>
       </c>
       <c r="I207" t="n">
         <v>13</v>
@@ -15202,10 +14806,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:20:16</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44398.05574074074</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15284,10 +14886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:20:07</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44398.05563657408</v>
       </c>
       <c r="I209" t="n">
         <v>5</v>
@@ -15351,10 +14951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:19:56</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44398.05550925926</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -15418,10 +15016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:19:49</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44398.05542824074</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -15492,10 +15088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:19:43</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44398.05535879629</v>
       </c>
       <c r="I212" t="n">
         <v>9</v>
@@ -15559,10 +15153,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:19:22</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44398.05511574074</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15638,10 +15230,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:18:23</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44398.05443287037</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15713,10 +15303,8 @@
           <t>4955454330</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:17:49</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44398.05403935185</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15788,10 +15376,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:17:13</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44398.05362268518</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -15855,10 +15441,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:16:24</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44398.05305555555</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -15922,10 +15506,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:16:05</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44398.05283564814</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16001,10 +15583,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:15:52</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44398.05268518518</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16068,10 +15648,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:15:31</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44398.05244212963</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16135,10 +15713,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:14:39</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44398.05184027777</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16202,10 +15778,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:14:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44398.05175925926</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16281,10 +15855,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:14:25</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44398.05167824074</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16348,10 +15920,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:13:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44398.05130787037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16427,10 +15997,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:12:22</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44398.05025462963</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16494,10 +16062,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:11:56</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44398.0499537037</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16561,10 +16127,8 @@
           <t>4955404524</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:07:21</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44398.04677083333</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16628,10 +16192,8 @@
           <t>4955405618</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-21 01:05:14</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44398.04530092593</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16695,10 +16257,8 @@
           <t>4955353578</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:56:00</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44398.03888888889</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16762,10 +16322,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:55:50</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44398.03877314815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -16837,10 +16395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:54:28</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44398.03782407408</v>
       </c>
       <c r="I231" t="n">
         <v>3</v>
@@ -16912,10 +16468,8 @@
           <t>4955345455</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:53:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44398.03686342593</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -16983,10 +16537,8 @@
           <t>4955334811</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:52:42</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44398.03659722222</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17062,10 +16614,8 @@
           <t>4955327342</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:51:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44398.03560185185</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17125,10 +16675,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:48:03</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44398.03336805556</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17196,10 +16744,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:44:55</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44398.03119212963</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17267,10 +16813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:44:26</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44398.03085648148</v>
       </c>
       <c r="I237" t="n">
         <v>17</v>
@@ -17338,10 +16882,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:41:02</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44398.02849537037</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17417,10 +16959,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:38:49</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44398.02695601852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17488,10 +17028,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:37:48</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44398.02625</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17563,10 +17101,8 @@
           <t>4952789075</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:37:44</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44398.0262037037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17642,10 +17178,8 @@
           <t>4955237701</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:35:25</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44398.02459490741</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17721,10 +17255,8 @@
           <t>4955229862</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:34:03</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44398.02364583333</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17800,10 +17332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:29:57</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44398.02079861111</v>
       </c>
       <c r="I244" t="n">
         <v>5</v>
@@ -17875,10 +17405,8 @@
           <t>4955215548</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:29:50</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44398.02071759259</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -17954,10 +17482,8 @@
           <t>4955210347</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:29:21</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44398.02038194444</v>
       </c>
       <c r="I246" t="n">
         <v>5</v>
@@ -18033,10 +17559,8 @@
           <t>4955199861</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:29:07</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44398.0202199074</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18104,10 +17628,8 @@
           <t>4955175323</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:23:43</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44398.01646990741</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18179,10 +17701,8 @@
           <t>4955161152</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:21:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44398.01496527778</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18254,10 +17774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:10:31</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44398.00730324074</v>
       </c>
       <c r="I250" t="n">
         <v>12</v>
@@ -18321,10 +17839,8 @@
           <t>4955080209</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:09:01</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44398.00626157408</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18392,10 +17908,8 @@
           <t>4955073986</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:09:00</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44398.00625</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18459,10 +17973,8 @@
           <t>4955061793</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:07:10</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44398.00497685185</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18530,10 +18042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:56:36</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44397.99763888889</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18609,10 +18119,8 @@
           <t>4954935249</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:53:30</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44397.99548611111</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18680,10 +18188,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:53:18</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44397.99534722222</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -18751,10 +18257,8 @@
           <t>4954956857</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:51:52</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44397.99435185185</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18822,10 +18326,8 @@
           <t>4953815379</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:50:54</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44397.99368055556</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -18897,10 +18399,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:49:56</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44397.99300925926</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -18972,10 +18472,8 @@
           <t>4954935249</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:48:52</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44397.99226851852</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19051,10 +18549,8 @@
           <t>4954913502</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:46:41</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44397.99075231481</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19130,10 +18626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:46:38</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44397.99071759259</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19193,10 +18687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:44:50</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44397.98946759259</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19268,10 +18760,8 @@
           <t>4954889201</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:43:27</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44397.98850694444</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19339,10 +18829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:42:46</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44397.9880324074</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19406,10 +18894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:41:52</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44397.98740740741</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19481,10 +18967,8 @@
           <t>4954824025</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:35:51</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44397.98322916667</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19544,10 +19028,8 @@
           <t>4954813700</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:33:43</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44397.98174768518</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19615,10 +19097,8 @@
           <t>4954783997</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:30:02</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44397.97918981482</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19690,10 +19170,8 @@
           <t>4954368032</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:29:09</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44397.97857638889</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -19769,10 +19247,8 @@
           <t>4952529892</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:25:51</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44397.97628472222</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -19836,10 +19312,8 @@
           <t>4954579942</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:24:49</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44397.97556712963</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -19915,10 +19389,8 @@
           <t>4954573017</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:24:18</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44397.97520833334</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -19994,10 +19466,8 @@
           <t>4954573017</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:24:05</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44397.97505787037</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20073,10 +19543,8 @@
           <t>4954719809</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:21:51</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44397.97350694444</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20140,10 +19608,8 @@
           <t>4954714670</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:21:23</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44397.97318287037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20219,10 +19685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:18:51</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44397.97142361111</v>
       </c>
       <c r="I277" t="n">
         <v>4</v>
@@ -20286,10 +19750,8 @@
           <t>4954689929</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:17:56</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44397.97078703704</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20365,10 +19827,8 @@
           <t>4954674488</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:15:59</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44397.96943287037</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20436,10 +19896,8 @@
           <t>4952973328</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:10:41</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44397.96575231481</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -20511,10 +19969,8 @@
           <t>4954628275</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:10:19</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44397.96549768518</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20590,10 +20046,8 @@
           <t>4954630769</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:10:17</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44397.96547453704</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20663,10 +20117,8 @@
           <t>4953279927</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:09:54</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44397.96520833333</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20742,10 +20194,8 @@
           <t>4954579942</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:09:20</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44397.96481481481</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20813,10 +20263,8 @@
           <t>4953279927</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:07:06</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44397.96326388889</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -20892,10 +20340,8 @@
           <t>4952973328</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:06:56</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44397.96314814815</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -20971,10 +20417,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:05:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44397.96195601852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21042,10 +20486,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:05:05</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44397.96186342592</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21117,10 +20559,8 @@
           <t>4954586470</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:04:49</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44397.96167824074</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21188,10 +20628,8 @@
           <t>4954579942</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:04:40</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44397.96157407408</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21259,10 +20697,8 @@
           <t>4954580516</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:04:12</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44397.96125</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21330,10 +20766,8 @@
           <t>4954573017</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:03:27</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44397.96072916667</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21401,10 +20835,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:03:25</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44397.96070601852</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21476,10 +20908,8 @@
           <t>4954561834</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-20 23:01:48</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44397.95958333334</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21551,10 +20981,8 @@
           <t>4954516170</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:56:15</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44397.95572916666</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21622,10 +21050,8 @@
           <t>4954470456</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:50:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44397.95180555555</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21697,10 +21123,8 @@
           <t>4954435417</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:46:58</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44397.9492824074</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -21772,10 +21196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:45:08</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44397.94800925926</v>
       </c>
       <c r="I298" t="n">
         <v>9</v>
@@ -21847,10 +21269,8 @@
           <t>4954392678</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:42:15</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44397.94600694445</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -21922,10 +21342,8 @@
           <t>4954396553</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:42:08</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44397.94592592592</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22001,10 +21419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:41:51</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44397.94572916667</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22076,10 +21492,8 @@
           <t>4954389948</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:41:40</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44397.94560185185</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22155,10 +21569,8 @@
           <t>4954368032</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:39:10</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44397.94386574074</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22230,10 +21642,8 @@
           <t>4954367937</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:39:07</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44397.94383101852</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22301,10 +21711,8 @@
           <t>4954370341</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:38:23</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44397.94332175926</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22376,10 +21784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:37:59</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44397.94304398148</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22451,10 +21857,8 @@
           <t>4954350660</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:36:32</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44397.94203703704</v>
       </c>
       <c r="I307" t="n">
         <v>5</v>
@@ -22518,10 +21922,8 @@
           <t>4954346625</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:36:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44397.94173611111</v>
       </c>
       <c r="I308" t="n">
         <v>5</v>
@@ -22585,10 +21987,8 @@
           <t>4954317350</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:32:34</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44397.93928240741</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22653,10 +22053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:30:15</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44397.93767361111</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22720,10 +22118,8 @@
           <t>4954291560</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:29:55</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44397.93744212963</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -22795,10 +22191,8 @@
           <t>4954243002</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:24:04</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44397.93337962963</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -22862,10 +22256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:22:30</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44397.93229166666</v>
       </c>
       <c r="I313" t="n">
         <v>17</v>
@@ -22933,10 +22325,8 @@
           <t>4954223805</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:21:59</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44397.93193287037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23008,10 +22398,8 @@
           <t>4954048530</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:21:51</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44397.93184027778</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23079,10 +22467,8 @@
           <t>4954223027</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:21:42</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44397.93173611111</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23154,10 +22540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:21:31</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44397.93160879629</v>
       </c>
       <c r="I317" t="n">
         <v>3</v>
@@ -23235,10 +22619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:18:56</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44397.92981481482</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23302,10 +22684,8 @@
           <t>4954166046</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:14:53</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44397.92700231481</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23373,10 +22753,8 @@
           <t>4954146712</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:12:27</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44397.9253125</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23448,10 +22826,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:12:03</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44397.92503472222</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23519,10 +22895,8 @@
           <t>4954142483</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:11:54</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44397.92493055556</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23590,10 +22964,8 @@
           <t>4954119966</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:10:08</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44397.9237037037</v>
       </c>
       <c r="I323" t="n">
         <v>2</v>
@@ -23665,10 +23037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:04:28</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44397.91976851852</v>
       </c>
       <c r="I324" t="n">
         <v>18</v>
@@ -23732,10 +23102,8 @@
           <t>4954073418</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:04:13</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44397.91959490741</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -23798,10 +23166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:00:44</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44397.91717592593</v>
       </c>
       <c r="I326" t="n">
         <v>4</v>
@@ -23865,10 +23231,8 @@
           <t>4954048530</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-20 22:00:42</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44397.91715277778</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -23940,10 +23304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:57:12</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44397.91472222222</v>
       </c>
       <c r="I328" t="n">
         <v>76</v>
@@ -24019,10 +23381,8 @@
           <t>4954004734</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:55:39</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44397.91364583333</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24086,10 +23446,8 @@
           <t>4953752943</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:49:40</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44397.90949074074</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24161,10 +23519,8 @@
           <t>4953752943</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:49:11</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44397.9091550926</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24240,10 +23596,8 @@
           <t>4953807965</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:43:40</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44397.90532407408</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24311,10 +23665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:43:28</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44397.90518518518</v>
       </c>
       <c r="I333" t="n">
         <v>11</v>
@@ -24401,10 +23753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:42:35</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44397.90457175926</v>
       </c>
       <c r="I334" t="n">
         <v>24</v>
@@ -24468,10 +23818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:41:38</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44397.90391203704</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24539,10 +23887,8 @@
           <t>4952529486</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:38:37</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44397.90181712963</v>
       </c>
       <c r="I336" t="n">
         <v>4</v>
@@ -24618,10 +23964,8 @@
           <t>4953807965</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:38:18</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44397.90159722222</v>
       </c>
       <c r="I337" t="n">
         <v>2</v>
@@ -24697,10 +24041,8 @@
           <t>4953807965</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:33:15</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44397.89809027778</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -24768,10 +24110,8 @@
           <t>4953822234</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:32:48</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44397.89777777778</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24839,10 +24179,8 @@
           <t>4953815379</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:31:45</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44397.89704861111</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -24902,10 +24240,8 @@
           <t>4953807965</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:31:16</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44397.89671296296</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -24981,10 +24317,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:31:04</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44397.89657407408</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25052,10 +24386,8 @@
           <t>4953777061</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:27:19</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44397.89396990741</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25123,10 +24455,8 @@
           <t>4953761217</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:25:07</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44397.89244212963</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25198,10 +24528,8 @@
           <t>4953757668</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:24:45</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44397.8921875</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25273,10 +24601,8 @@
           <t>4953752943</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:24:01</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44397.89167824074</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25359,10 +24685,8 @@
           <t>4953747047</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:23:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44397.89136574074</v>
       </c>
       <c r="I347" t="n">
         <v>4</v>
@@ -25434,10 +24758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:22:22</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44397.89053240741</v>
       </c>
       <c r="I348" t="n">
         <v>16</v>
@@ -25509,10 +24831,8 @@
           <t>4953733375</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:22:12</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44397.89041666667</v>
       </c>
       <c r="I349" t="n">
         <v>2</v>
@@ -25584,10 +24904,8 @@
           <t>4952974330</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:19:55</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44397.88883101852</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25659,10 +24977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:19:03</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44397.88822916667</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -25738,10 +25054,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:18:38</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44397.88793981481</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25813,10 +25127,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:18:14</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44397.88766203704</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25888,10 +25200,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:18:01</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44397.88751157407</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -25963,10 +25273,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:17:34</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44397.88719907407</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26030,10 +25338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:15:08</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44397.88550925926</v>
       </c>
       <c r="I356" t="n">
         <v>8</v>
@@ -26101,10 +25407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:13:02</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44397.88405092592</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26172,10 +25476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:11:52</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44397.88324074074</v>
       </c>
       <c r="I358" t="n">
         <v>5</v>
@@ -26251,10 +25553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:11:29</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44397.88297453704</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26330,10 +25630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:10:43</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44397.88244212963</v>
       </c>
       <c r="I360" t="n">
         <v>23</v>
@@ -26409,10 +25707,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:09:48</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44397.88180555555</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26484,10 +25780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:07:21</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44397.88010416667</v>
       </c>
       <c r="I362" t="n">
         <v>8</v>
@@ -26563,10 +25857,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:07:14</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44397.88002314815</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26626,10 +25918,8 @@
           <t>4952559281</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:02:57</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44397.87704861111</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26705,10 +25995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:01:24</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44397.87597222222</v>
       </c>
       <c r="I365" t="n">
         <v>7</v>
@@ -26776,10 +26064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-20 21:00:28</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44397.87532407408</v>
       </c>
       <c r="I366" t="n">
         <v>5</v>
@@ -26843,10 +26129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:59:38</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44397.87474537037</v>
       </c>
       <c r="I367" t="n">
         <v>5</v>
@@ -26922,10 +26206,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:47:16</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44397.86615740741</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -26993,10 +26275,8 @@
           <t>4952635541</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:44:48</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44397.86444444444</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27064,10 +26344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:44:15</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44397.8640625</v>
       </c>
       <c r="I370" t="n">
         <v>30</v>
@@ -27131,10 +26409,8 @@
           <t>4952635541</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:37:39</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44397.85947916667</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27206,10 +26482,8 @@
           <t>4953279927</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:36:20</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44397.85856481481</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27285,10 +26559,8 @@
           <t>4952773238</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:33:05</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44397.85630787037</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -27364,10 +26636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:32:59</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44397.85623842593</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27431,10 +26701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:32:50</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44397.85613425926</v>
       </c>
       <c r="I375" t="n">
         <v>6</v>
@@ -27506,10 +26774,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:32:35</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44397.85596064815</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27581,10 +26847,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:32:27</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44397.85586805556</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27656,10 +26920,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:30:58</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44397.85483796296</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27735,10 +26997,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:28:29</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44397.85311342592</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -27802,10 +27062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:27:43</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44397.85258101852</v>
       </c>
       <c r="I380" t="n">
         <v>34</v>
@@ -27881,10 +27139,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:27:28</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44397.85240740741</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27948,10 +27204,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:25:53</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44397.85130787037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28015,10 +27269,8 @@
           <t>4952973328</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:25:39</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44397.85114583333</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28091,10 +27343,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:25:09</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44397.85079861111</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28162,10 +27412,8 @@
           <t>4953279927</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:24:16</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44397.85018518518</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28241,10 +27489,8 @@
           <t>4952973328</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:23:10</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44397.8494212963</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28320,10 +27566,8 @@
           <t>4952635541</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:22:48</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44397.84916666667</v>
       </c>
       <c r="I387" t="n">
         <v>11</v>
@@ -28391,10 +27635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:21:23</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44397.84818287037</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28458,10 +27700,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:20:27</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44397.84753472222</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28525,10 +27765,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:18:56</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44397.84648148148</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28592,10 +27830,8 @@
           <t>4953236620</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:17:29</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44397.84547453704</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28659,10 +27895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:16:54</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44397.84506944445</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28738,10 +27972,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:16:50</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44397.84502314815</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -28813,10 +28045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:14:23</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44397.84332175926</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
@@ -28884,10 +28114,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:10:46</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44397.84081018518</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -28951,10 +28179,8 @@
           <t>4953169464</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:10:10</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44397.84039351852</v>
       </c>
       <c r="I396" t="n">
         <v>9</v>
@@ -29018,10 +28244,8 @@
           <t>4953168398</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:09:43</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44397.84008101852</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29097,10 +28321,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:08:07</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44397.83896990741</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29168,10 +28390,8 @@
           <t>4953157225</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:07:16</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44397.83837962963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29239,10 +28459,8 @@
           <t>4953144763</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:06:19</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44397.83771990741</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29310,10 +28528,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:05:52</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44397.83740740741</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29381,10 +28597,8 @@
           <t>4953139000</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:05:45</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44397.83732638889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29452,10 +28666,8 @@
           <t>4953147741</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:05:44</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44397.83731481482</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -29523,10 +28735,8 @@
           <t>4953134713</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:04:33</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44397.83649305555</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29594,10 +28804,8 @@
           <t>4953123347</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:03:20</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44397.83564814815</v>
       </c>
       <c r="I405" t="n">
         <v>9</v>
@@ -29673,10 +28881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:01:52</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44397.83462962963</v>
       </c>
       <c r="I406" t="n">
         <v>2</v>
@@ -29748,10 +28954,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:01:46</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44397.83456018518</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -29823,10 +29027,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-20 20:00:08</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44397.83342592593</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -29898,10 +29100,8 @@
           <t>4953093224</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:59:09</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44397.83274305556</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -29969,10 +29169,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:59:06</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44397.83270833334</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30040,10 +29238,8 @@
           <t>4952789075</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:58:32</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44397.83231481481</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30115,10 +29311,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:58:27</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44397.83225694444</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30183,10 +29377,8 @@
           <t>4953085854</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:57:18</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44397.83145833333</v>
       </c>
       <c r="I413" t="n">
         <v>9</v>
@@ -30254,10 +29446,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:56:37</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44397.8309837963</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30321,10 +29511,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:55:30</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44397.83020833333</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30396,10 +29584,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:55:28</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44397.83018518519</v>
       </c>
       <c r="I416" t="n">
         <v>2</v>
@@ -30463,10 +29649,8 @@
           <t>4953050943</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:54:29</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44397.82950231482</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30542,10 +29726,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:54:03</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44397.82920138889</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30617,10 +29799,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:54:02</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44397.82918981482</v>
       </c>
       <c r="I419" t="n">
         <v>2</v>
@@ -30684,10 +29864,8 @@
           <t>4953050943</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:53:26</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44397.82877314815</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30763,10 +29941,8 @@
           <t>4953043191</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:52:26</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44397.8280787037</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30830,10 +30006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:51:58</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44397.82775462963</v>
       </c>
       <c r="I422" t="n">
         <v>10</v>
@@ -30901,10 +30075,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:51:23</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44397.82734953704</v>
       </c>
       <c r="I423" t="n">
         <v>4</v>
@@ -30968,10 +30140,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:49:41</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44397.82616898148</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31049,10 +30219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:49:06</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44397.82576388889</v>
       </c>
       <c r="I425" t="n">
         <v>25</v>
@@ -31116,10 +30284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:48:21</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44397.82524305556</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31196,10 +30362,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:46:29</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44397.82394675926</v>
       </c>
       <c r="I427" t="n">
         <v>2</v>
@@ -31263,10 +30427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:45:38</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44397.82335648148</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31330,10 +30492,8 @@
           <t>4952585302</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:45:10</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44397.82303240741</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31409,10 +30569,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:43:54</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44397.82215277778</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
@@ -31484,10 +30642,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:43:25</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44397.82181712963</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -31559,10 +30715,8 @@
           <t>4952974330</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:43:07</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44397.82160879629</v>
       </c>
       <c r="I432" t="n">
         <v>6</v>
@@ -31638,10 +30792,8 @@
           <t>4952973328</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:42:43</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44397.82133101852</v>
       </c>
       <c r="I433" t="n">
         <v>22</v>
@@ -31713,10 +30865,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:41:40</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44397.82060185185</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -31780,10 +30930,8 @@
           <t>4952960207</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:41:11</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44397.8202662037</v>
       </c>
       <c r="I435" t="n">
         <v>9</v>
@@ -31855,10 +31003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:40:49</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44397.82001157408</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -31927,10 +31073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:39:10</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44397.81886574074</v>
       </c>
       <c r="I437" t="n">
         <v>7</v>
@@ -32014,10 +31158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:37:42</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44397.81784722222</v>
       </c>
       <c r="I438" t="n">
         <v>12</v>
@@ -32085,10 +31227,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:37:41</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44397.81783564815</v>
       </c>
       <c r="I439" t="n">
         <v>2</v>
@@ -32160,10 +31300,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:37:38</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44397.81780092593</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32231,10 +31369,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:37:02</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44397.81738425926</v>
       </c>
       <c r="I441" t="n">
         <v>4</v>
@@ -32306,10 +31442,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:32:55</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44397.81452546296</v>
       </c>
       <c r="I442" t="n">
         <v>7</v>
@@ -32373,10 +31507,8 @@
           <t>4952892058</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:32:02</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44397.81391203704</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32440,10 +31572,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:29:01</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44397.81181712963</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32519,10 +31649,8 @@
           <t>4952863561</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:28:44</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44397.81162037037</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -32586,10 +31714,8 @@
           <t>4952866674</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:28:36</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44397.81152777778</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32657,10 +31783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:27:37</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44397.81084490741</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32728,10 +31852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:26:30</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44397.81006944444</v>
       </c>
       <c r="I448" t="n">
         <v>15</v>
@@ -32803,10 +31925,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:23:45</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44397.80815972222</v>
       </c>
       <c r="I449" t="n">
         <v>8</v>
@@ -32878,10 +31998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:22:57</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44397.80760416666</v>
       </c>
       <c r="I450" t="n">
         <v>2</v>
@@ -32945,10 +32063,8 @@
           <t>4952820877</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:22:30</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44397.80729166666</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33016,10 +32132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:22:14</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44397.80710648148</v>
       </c>
       <c r="I452" t="n">
         <v>6</v>
@@ -33087,10 +32201,8 @@
           <t>4952815978</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:21:52</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44397.80685185185</v>
       </c>
       <c r="I453" t="n">
         <v>15</v>
@@ -33166,10 +32278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:20:34</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44397.80594907407</v>
       </c>
       <c r="I454" t="n">
         <v>6</v>
@@ -33245,10 +32355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:20:18</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44397.80576388889</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -33324,10 +32432,8 @@
           <t>4952789075</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:19:10</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44397.80497685185</v>
       </c>
       <c r="I456" t="n">
         <v>12</v>
@@ -33403,10 +32509,8 @@
           <t>4952796133</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:18:45</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44397.8046875</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33482,10 +32586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:18:30</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44397.80451388889</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -33553,10 +32655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:18:30</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44397.80451388889</v>
       </c>
       <c r="I459" t="n">
         <v>5</v>
@@ -33628,10 +32728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:16:54</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44397.80340277778</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33703,10 +32801,8 @@
           <t>4952773238</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:16:54</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44397.80340277778</v>
       </c>
       <c r="I461" t="n">
         <v>3</v>
@@ -33778,10 +32874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:15:55</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44397.80271990741</v>
       </c>
       <c r="I462" t="n">
         <v>2</v>
@@ -33857,10 +32951,8 @@
           <t>4952764220</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:15:49</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44397.80265046296</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33928,10 +33020,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:15:17</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44397.80228009259</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34008,10 +33098,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:14:41</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44397.80186342593</v>
       </c>
       <c r="I465" t="n">
         <v>3</v>
@@ -34075,10 +33163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:12:55</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44397.80063657407</v>
       </c>
       <c r="I466" t="n">
         <v>3</v>
@@ -34150,10 +33236,8 @@
           <t>4952564177</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:12:42</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44397.80048611111</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34229,10 +33313,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:11:07</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44397.79938657407</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34296,10 +33378,8 @@
           <t>4952723356</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:10:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44397.79873842592</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34367,10 +33447,8 @@
           <t>4952714648</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:09:51</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44397.79850694445</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34442,10 +33520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:08:48</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44397.79777777778</v>
       </c>
       <c r="I471" t="n">
         <v>7</v>
@@ -34509,10 +33585,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:08:44</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44397.79773148148</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34594,10 +33668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:07:53</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44397.7971412037</v>
       </c>
       <c r="I473" t="n">
         <v>12</v>
@@ -34661,10 +33733,8 @@
           <t>4952697897</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:07:08</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44397.79662037037</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34732,10 +33802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:06:38</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44397.79627314815</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -34807,10 +33875,8 @@
           <t>4952700210</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:06:13</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44397.7959837963</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34887,10 +33953,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:05:55</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44397.79577546296</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34966,10 +34030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:03:54</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44397.794375</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35045,10 +34107,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:03:40</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44397.79421296297</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35116,10 +34176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:03:38</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44397.79418981481</v>
       </c>
       <c r="I480" t="n">
         <v>8</v>
@@ -35191,10 +34249,8 @@
           <t>4952570363</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:03:33</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44397.79413194444</v>
       </c>
       <c r="I481" t="n">
         <v>2</v>
@@ -35266,10 +34322,8 @@
           <t>4952559547</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:02:34</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44397.79344907407</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35337,10 +34391,8 @@
           <t>4952659229</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:02:04</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44397.79310185185</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35412,10 +34464,8 @@
           <t>4952661351</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:02:02</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44397.7930787037</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35491,10 +34541,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:01:57</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44397.79302083333</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35566,10 +34614,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:01:36</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44397.79277777778</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35642,10 +34688,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:01:32</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44397.79273148148</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -35717,10 +34761,8 @@
           <t>4952560831</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:00:31</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44397.79202546296</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35796,10 +34838,8 @@
           <t>4952651253</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-20 19:00:27</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44397.79197916666</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35867,10 +34907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:44</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44397.79078703704</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35942,10 +34980,8 @@
           <t>4952629979</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:35</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44397.79068287037</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36013,10 +35049,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:21</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44397.79052083333</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36088,10 +35122,8 @@
           <t>4952635541</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:09</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44397.79038194445</v>
       </c>
       <c r="I493" t="n">
         <v>16</v>
@@ -36167,10 +35199,8 @@
           <t>4952614231</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:08</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44397.79037037037</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36235,10 +35265,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:05</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44397.79033564815</v>
       </c>
       <c r="I495" t="n">
         <v>5</v>
@@ -36310,10 +35338,8 @@
           <t>4952537438</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:58:01</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44397.79028935185</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36377,10 +35403,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:57:52</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44397.79018518519</v>
       </c>
       <c r="I497" t="n">
         <v>4</v>
@@ -36452,10 +35476,8 @@
           <t>4952614231</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:57:45</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44397.79010416667</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36519,10 +35541,8 @@
           <t>4952627590</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:57:39</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44397.79003472222</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36590,10 +35610,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:56:52</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44397.78949074074</v>
       </c>
       <c r="I500" t="n">
         <v>13</v>
@@ -36669,10 +35687,8 @@
           <t>4952614231</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:56:43</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44397.78938657408</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36736,10 +35752,8 @@
           <t>4952614231</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:56:23</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44397.78915509259</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36803,10 +35817,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:56:11</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44397.7890162037</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36882,10 +35894,8 @@
           <t>4952615217</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:55:53</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44397.78880787037</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -36954,10 +35964,8 @@
           <t>4952609504</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:55:38</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44397.78863425926</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37021,10 +36029,8 @@
           <t>4952610848</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:55:05</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44397.78825231481</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37096,10 +36102,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:54:44</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44397.78800925926</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37175,10 +36179,8 @@
           <t>4952599107</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:54:25</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44397.78778935185</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37254,10 +36256,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:41</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44397.78728009259</v>
       </c>
       <c r="I509" t="n">
         <v>2</v>
@@ -37317,10 +36317,8 @@
           <t>4952595959</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:12</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44397.78694444444</v>
       </c>
       <c r="I510" t="n">
         <v>2</v>
@@ -37384,10 +36382,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:08</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44397.78689814815</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37459,10 +36455,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:08</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44397.78689814815</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37526,10 +36520,8 @@
           <t>4952588363</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:07</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44397.78688657407</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37597,10 +36589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:53:00</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44397.78680555556</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37677,10 +36667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:58</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44397.78678240741</v>
       </c>
       <c r="I515" t="n">
         <v>6</v>
@@ -37756,10 +36744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:50</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44397.78668981481</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -37835,10 +36821,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:46</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44397.78664351852</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -37898,10 +36882,8 @@
           <t>4952564177</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:40</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44397.78657407407</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -37965,10 +36947,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:40</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44397.78657407407</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38044,10 +37024,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:36</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44397.78652777777</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38123,10 +37101,8 @@
           <t>4952560831</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:20</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44397.78634259259</v>
       </c>
       <c r="I521" t="n">
         <v>4</v>
@@ -38194,10 +37170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:09</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44397.78621527777</v>
       </c>
       <c r="I522" t="n">
         <v>6</v>
@@ -38273,10 +37247,8 @@
           <t>4952590160</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:52:08</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44397.7862037037</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38340,10 +37312,8 @@
           <t>4952585302</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:51:54</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44397.78604166667</v>
       </c>
       <c r="I524" t="n">
         <v>11</v>
@@ -38407,10 +37377,8 @@
           <t>4952574901</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:51:45</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44397.7859375</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38482,10 +37450,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:51:44</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44397.78592592593</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38549,10 +37515,8 @@
           <t>4952564177</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:51:38</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44397.78585648148</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -38620,10 +37584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:50:48</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44397.78527777778</v>
       </c>
       <c r="I528" t="n">
         <v>1</v>
@@ -38691,10 +37653,8 @@
           <t>4952516033</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:50:37</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44397.78515046297</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38770,10 +37730,8 @@
           <t>4952575758</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:50:29</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44397.78505787037</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -38841,10 +37799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:50:22</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44397.78497685185</v>
       </c>
       <c r="I531" t="n">
         <v>83</v>
@@ -38912,10 +37868,8 @@
           <t>4952575269</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:50:18</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44397.78493055556</v>
       </c>
       <c r="I532" t="n">
         <v>30</v>
@@ -38988,10 +37942,8 @@
           <t>4952537438</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:50:03</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44397.78475694444</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39063,10 +38015,8 @@
           <t>4952564177</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:54</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44397.78465277778</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39142,10 +38092,8 @@
           <t>4952570363</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:54</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44397.78465277778</v>
       </c>
       <c r="I535" t="n">
         <v>6</v>
@@ -39221,10 +38169,8 @@
           <t>4952535223</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:53</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44397.7846412037</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39296,10 +38242,8 @@
           <t>4952566606</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:43</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44397.78452546296</v>
       </c>
       <c r="I537" t="n">
         <v>8</v>
@@ -39363,10 +38307,8 @@
           <t>4952559547</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:34</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44397.7844212963</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39426,10 +38368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:33</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44397.78440972222</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -39493,10 +38433,8 @@
           <t>4952559281</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:28</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44397.78435185185</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39572,10 +38510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:26</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44397.7843287037</v>
       </c>
       <c r="I541" t="n">
         <v>46</v>
@@ -39639,10 +38575,8 @@
           <t>4952565815</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:24</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44397.78430555556</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39706,10 +38640,8 @@
           <t>4952565682</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:21</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44397.78427083333</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39773,10 +38705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:49:11</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44397.7841550926</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -39840,10 +38770,8 @@
           <t>4952554685</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:59</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44397.7840162037</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39919,10 +38847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:56</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44397.78398148148</v>
       </c>
       <c r="I546" t="n">
         <v>7</v>
@@ -39998,10 +38924,8 @@
           <t>4952560831</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:39</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44397.78378472223</v>
       </c>
       <c r="I547" t="n">
         <v>4</v>
@@ -40069,10 +38993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:36</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44397.78375</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40148,10 +39070,8 @@
           <t>4952560307</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:26</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44397.78363425926</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40223,10 +39143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:03</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44397.78336805556</v>
       </c>
       <c r="I550" t="n">
         <v>5</v>
@@ -40298,10 +39216,8 @@
           <t>4952555806</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:48:02</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44397.78335648148</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40369,10 +39285,8 @@
           <t>4952549086</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:57</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44397.78329861111</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40448,10 +39362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:54</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44397.78326388889</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40519,10 +39431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:47</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44397.78318287037</v>
       </c>
       <c r="I554" t="n">
         <v>1</v>
@@ -40594,10 +39504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:36</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44397.78305555556</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -40665,10 +39573,8 @@
           <t>4952537438</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:13</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44397.78278935186</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40732,10 +39638,8 @@
           <t>4952539918</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:12</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44397.78277777778</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40799,10 +39703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:04</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44397.78268518519</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -40870,10 +39772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:02</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44397.78266203704</v>
       </c>
       <c r="I559" t="n">
         <v>73</v>
@@ -40942,10 +39842,8 @@
           <t>4952539364</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:47:00</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44397.78263888889</v>
       </c>
       <c r="I560" t="n">
         <v>2</v>
@@ -41021,10 +39919,8 @@
           <t>4952529892</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:43</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44397.78244212963</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41088,10 +39984,8 @@
           <t>4952545545</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:35</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44397.78234953704</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41163,10 +40057,8 @@
           <t>4952537438</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:17</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44397.7821412037</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41238,10 +40130,8 @@
           <t>4952534673</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:14</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44397.78210648148</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41320,10 +40210,8 @@
           <t>4952541284</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:10</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44397.78206018519</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41391,10 +40279,8 @@
           <t>4952536955</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:07</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44397.78202546296</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41458,10 +40344,8 @@
           <t>4952535223</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:04</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44397.78199074074</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41525,10 +40409,8 @@
           <t>4952536827</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:46:04</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44397.78199074074</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41588,10 +40470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:58</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44397.78192129629</v>
       </c>
       <c r="I569" t="n">
         <v>14</v>
@@ -41659,10 +40539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:53</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44397.78186342592</v>
       </c>
       <c r="I570" t="n">
         <v>10</v>
@@ -41726,10 +40604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:51</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44397.78184027778</v>
       </c>
       <c r="I571" t="n">
         <v>25</v>
@@ -41805,10 +40681,8 @@
           <t>4952533651</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:51</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44397.78184027778</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -41889,10 +40763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:40</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44397.78171296296</v>
       </c>
       <c r="I573" t="n">
         <v>354</v>
@@ -41960,10 +40832,8 @@
           <t>4952529892</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:34</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44397.78164351852</v>
       </c>
       <c r="I574" t="n">
         <v>5</v>
@@ -42027,10 +40897,8 @@
           <t>4952516010</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:32</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44397.78162037037</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42102,10 +40970,8 @@
           <t>4952535223</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:29</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44397.78158564815</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42177,10 +41043,8 @@
           <t>4952529486</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:24</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44397.78152777778</v>
       </c>
       <c r="I577" t="n">
         <v>56</v>
@@ -42252,10 +41116,8 @@
           <t>4952532272</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:45:20</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44397.78148148148</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42323,10 +41185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:59</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44397.78123842592</v>
       </c>
       <c r="I579" t="n">
         <v>400</v>
@@ -42394,10 +41254,8 @@
           <t>4952527969</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:48</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44397.78111111111</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42461,10 +41319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:42</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44397.78104166667</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42533,10 +41389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:41</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44397.78103009259</v>
       </c>
       <c r="I582" t="n">
         <v>8</v>
@@ -42604,10 +41458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:26</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44397.78085648148</v>
       </c>
       <c r="I583" t="n">
         <v>57</v>
@@ -42676,10 +41528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:16</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44397.78074074074</v>
       </c>
       <c r="I584" t="n">
         <v>9</v>
@@ -42751,10 +41601,8 @@
           <t>4952521647</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:11</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44397.78068287037</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42822,10 +41670,8 @@
           <t>4952518783</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:44:03</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44397.78059027778</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -42889,10 +41735,8 @@
           <t>4952525752</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:43:53</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44397.78047453704</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42956,10 +41800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:43:37</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44397.78028935185</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43035,10 +41877,8 @@
           <t>4952516010</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:43:25</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44397.78015046296</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43114,10 +41954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:43:13</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44397.78001157408</v>
       </c>
       <c r="I590" t="n">
         <v>4</v>
@@ -43196,10 +42034,8 @@
           <t>4952516033</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:43:01</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44397.77987268518</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43275,10 +42111,8 @@
           <t>4952516010</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:43:00</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44397.77986111111</v>
       </c>
       <c r="I592" t="n">
         <v>19</v>
@@ -43354,10 +42188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:49</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44397.7797337963</v>
       </c>
       <c r="I593" t="n">
         <v>15</v>
@@ -43433,10 +42265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:29</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44397.77950231481</v>
       </c>
       <c r="I594" t="n">
         <v>885</v>
@@ -43500,10 +42330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:25</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44397.77945601852</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43576,10 +42404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:17</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44397.77936342593</v>
       </c>
       <c r="I596" t="n">
         <v>318</v>
@@ -43643,10 +42469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:09</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44397.77927083334</v>
       </c>
       <c r="I597" t="n">
         <v>12</v>
@@ -43710,10 +42534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:04</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44397.77921296296</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -43789,10 +42611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:42:04</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44397.77921296296</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43856,10 +42676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:56</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44397.77912037037</v>
       </c>
       <c r="I600" t="n">
         <v>12</v>
@@ -43935,10 +42753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:52</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44397.77907407407</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44010,10 +42826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:52</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44397.77907407407</v>
       </c>
       <c r="I602" t="n">
         <v>27</v>
@@ -44081,10 +42895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:45</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44397.77899305556</v>
       </c>
       <c r="I603" t="n">
         <v>11</v>
@@ -44148,10 +42960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:43</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44397.77896990741</v>
       </c>
       <c r="I604" t="n">
         <v>114</v>
@@ -44219,10 +43029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:41</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44397.77894675926</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44294,10 +43102,8 @@
           <t>4952502556</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:40</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44397.77893518518</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44373,10 +43179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:37</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44397.77890046296</v>
       </c>
       <c r="I607" t="n">
         <v>17</v>
@@ -44452,10 +43256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:34</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44397.77886574074</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -44531,10 +43333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:27</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44397.77878472222</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -44598,10 +43398,8 @@
           <t>4952501951</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:27</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44397.77878472222</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44669,10 +43467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:26</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44397.77877314815</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44736,10 +43532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:19</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44397.77869212963</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -44807,10 +43601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:07</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44397.77855324074</v>
       </c>
       <c r="I613" t="n">
         <v>30</v>
@@ -44878,10 +43670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:07</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44397.77855324074</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44949,10 +43739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:05</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44397.77853009259</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45028,10 +43816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:02</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44397.77849537037</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45099,10 +43885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:01</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44397.7784837963</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45166,10 +43950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:00</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44397.77847222222</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45241,10 +44023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:41:00</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44397.77847222222</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45320,10 +44100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:40:48</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44397.77833333334</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -45391,10 +44169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-20 18:40:44</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44397.77828703704</v>
       </c>
       <c r="I621" t="n">
         <v>2</v>
